--- a/transformacion/staging/fact_actividades_estrategias.xlsx
+++ b/transformacion/staging/fact_actividades_estrategias.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="70">
   <si>
     <t>N°</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>BENEFICIARIOS</t>
+  </si>
+  <si>
+    <t>Unnamed: 4</t>
+  </si>
+  <si>
+    <t>Unnamed: 5</t>
   </si>
   <si>
     <t xml:space="preserve">Encuentro de Formación Ciclo 1 año 1 </t>
@@ -206,7 +212,7 @@
     <t>ESTRATEGIAS</t>
   </si>
   <si>
-    <t xml:space="preserve">ATEM_BEN_2025    </t>
+    <t>ATEM_BEN_2025</t>
   </si>
   <si>
     <t>RECUP_APREND_BEN_2024</t>
@@ -588,13 +594,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:S44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -646,791 +652,977 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>61</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>61</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>61</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>61</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>62</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="K7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>62</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="K8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>62</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="K9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>62</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>5</v>
       </c>
       <c r="K10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>62</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>6</v>
       </c>
       <c r="K11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>62</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>63</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="K13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>63</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>3</v>
       </c>
       <c r="K14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>63</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>4</v>
       </c>
       <c r="K15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>63</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>5</v>
       </c>
       <c r="K16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>63</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17">
         <v>6</v>
       </c>
       <c r="K17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>63</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>64</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19">
         <v>2</v>
       </c>
       <c r="K19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>64</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20">
         <v>3</v>
       </c>
       <c r="K20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>64</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21">
         <v>4</v>
       </c>
       <c r="K21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>64</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22">
         <v>5</v>
       </c>
       <c r="K22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L22" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P22" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>64</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23">
         <v>6</v>
       </c>
       <c r="K23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L23" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N23" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P23" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>64</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N24" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>65</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25">
         <v>2</v>
       </c>
       <c r="K25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N25" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+        <v>65</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26">
         <v>3</v>
       </c>
       <c r="K26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L26" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P26" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+        <v>65</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27">
         <v>4</v>
       </c>
       <c r="K27" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N27" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q27" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+        <v>65</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28">
         <v>5</v>
       </c>
       <c r="K28" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O28" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+        <v>65</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29">
         <v>6</v>
       </c>
       <c r="K29" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L29" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O29" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P29" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+        <v>65</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30">
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D30">
         <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K30" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M30" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N30" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O30" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+        <v>66</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31">
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D31">
         <v>100</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K31" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M31" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N31" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O31" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q31" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+        <v>66</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="D32">
         <v>2024</v>
       </c>
@@ -1444,176 +1636,212 @@
         <v>2027</v>
       </c>
       <c r="K32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N32" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O32" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
+        <v>67</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33">
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D33">
         <v>140</v>
       </c>
       <c r="H33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K33" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L33" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N33" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O33" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P33" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
+        <v>67</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34">
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E34" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K34" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L34" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N34" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O34" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P34" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q34" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
+        <v>67</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35">
         <v>3</v>
       </c>
       <c r="H35" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K35" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L35" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N35" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P35" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
+        <v>67</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36">
         <v>4</v>
       </c>
       <c r="H36" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L36" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N36" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O36" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P36" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
+        <v>67</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37">
         <v>5</v>
       </c>
       <c r="H37" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K37" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L37" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N37" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P37" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q37" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
+        <v>67</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
       <c r="D38">
         <v>2024</v>
       </c>
@@ -1627,190 +1855,232 @@
         <v>2027</v>
       </c>
       <c r="K38" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L38" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M38" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O38" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P38" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q38" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
+        <v>68</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39">
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K39" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L39" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M39" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N39" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O39" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P39" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q39" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
+        <v>68</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40">
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K40" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L40" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M40" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N40" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O40" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P40" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
+        <v>68</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41">
         <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K41" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L41" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M41" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O41" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P41" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
+        <v>68</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42">
         <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K42" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L42" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M42" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N42" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O42" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P42" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
+        <v>68</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43">
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K43" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L43" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N43" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O43" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P43" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
+        <v>69</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44">
         <v>2</v>
       </c>
       <c r="K44" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L44" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N44" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O44" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P44" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q44" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
